--- a/scripts/Schedule_threads.xlsx
+++ b/scripts/Schedule_threads.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Profiles\csacenda\PycharmProjects\algocryptos_scripts\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profiles\csacenda\PycharmProjects\algocryptos_scripts_last\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="7670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Traitement</t>
   </si>
@@ -89,24 +89,15 @@
     <t>KPI for reddit subscribers</t>
   </si>
   <si>
-    <t>Every 5 minutes</t>
-  </si>
-  <si>
     <t>1 sec</t>
   </si>
   <si>
-    <t>Every 24h (at night)</t>
-  </si>
-  <si>
     <t>5 sec</t>
   </si>
   <si>
     <t>4 min</t>
   </si>
   <si>
-    <t>Every hour</t>
-  </si>
-  <si>
     <t>6 min</t>
   </si>
   <si>
@@ -120,12 +111,33 @@
   </si>
   <si>
     <t>Blocages</t>
+  </si>
+  <si>
+    <t>Every 24h (1:04am)</t>
+  </si>
+  <si>
+    <t>Every 24h (1:15am)</t>
+  </si>
+  <si>
+    <t>Every 24h (1:34am)</t>
+  </si>
+  <si>
+    <t>Every 24h (1:45am)</t>
+  </si>
+  <si>
+    <t>Every hour (min27)</t>
+  </si>
+  <si>
+    <t>Every hour (min1 sauf 1h-2h)</t>
+  </si>
+  <si>
+    <t>Every 5 minutes (min0 sauf 1h-2h)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,13 +167,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,17 +200,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:H8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:H8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="5" name="Id"/>
-    <tableColumn id="1" name="Traitement"/>
-    <tableColumn id="2" name="Paramètres" dataDxfId="0"/>
-    <tableColumn id="6" name="Description"/>
-    <tableColumn id="3" name="Fréquence"/>
-    <tableColumn id="4" name="Durée"/>
-    <tableColumn id="7" name="Contrainte"/>
-    <tableColumn id="8" name="Blocages"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Traitement"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Paramètres" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fréquence"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Contrainte"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Blocages"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,24 +478,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:I9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -502,13 +515,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,17 +535,17 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -546,17 +559,17 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -570,16 +583,16 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -593,16 +606,16 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -616,16 +629,16 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -639,16 +652,16 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
       <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -662,13 +675,13 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
       </c>
       <c r="H8">
         <v>1</v>
